--- a/user-data/uganda-pop-sex-ratio/uganda-pop-sex-ratio.xlsx
+++ b/user-data/uganda-pop-sex-ratio/uganda-pop-sex-ratio.xlsx
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 26</t>
+    <t xml:space="preserve">Source: 27</t>
   </si>
   <si>
     <t xml:space="preserve"/>
